--- a/order.xlsx
+++ b/order.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -86,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -143,11 +143,25 @@
       </c>
     </row>
     <row r="5">
-      <c r="C5" t="s" s="1">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>250.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
-        <v>530.0</v>
+      <c r="D6" t="n">
+        <v>250.0</v>
       </c>
     </row>
   </sheetData>
